--- a/data/trans_bre/P13A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P13A_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,12 +620,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,38</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,2; 0,0</t>
+          <t>-9,12; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,32 +820,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,83</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,32</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-51,3%</t>
+          <t>-46,52%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,9</t>
+          <t>0,0; 4,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,34; 13,22</t>
+          <t>-6,26; 1,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>-25,59%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,91; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,88; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,39; 71,74</t>
+          <t>-7,53; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 44,41</t>
+          <t>-5,16; 1,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1020,27 +1020,27 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>82,5</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,98</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,37</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1120,22 +1120,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-67,45</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-23,66</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-67,45%</t>
+          <t>55,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-55,97%</t>
+          <t>-63,87%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>103,84%</t>
+          <t>137,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>34,09%</t>
         </is>
       </c>
     </row>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 0,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-81,52; 40,11</t>
+          <t>-1,4; 0,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 27,57</t>
+          <t>-0,46; 1,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 13,67</t>
+          <t>-1,21; 1,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,14 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-61,68; 272,26</t>
+          <t>-80,65; 624,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P13A_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,117 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,65</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,12; 0,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-16.71574459612798</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr"/>
+      <c r="I7" s="6" t="inlineStr"/>
+      <c r="J7" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-46,52%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="n">
+        <v>-74.84899412988669</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,4</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,28</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,18</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,26; 1,62</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +745,133 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-25,59%</t>
-        </is>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="n">
+        <v>19.3158543984051</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-10.49668366766911</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.5851304888600194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,91; 0,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,88; 0,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,53; 0,0</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 1,94</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-60.17427711682717</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>71.78129912645606</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>15.32663641328522</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,23</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,24</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,4</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="n">
+        <v>-35.95609303855083</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>10.03728720348273</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6470388596531133</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="n">
+        <v>-34.62278735425888</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,89</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="n">
+        <v>75.09857956106364</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,44 +879,24 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>55,85%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-63,87%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>137,19%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>34,09%</t>
+      <c r="C16" s="5" t="inlineStr"/>
+      <c r="D16" s="5" t="inlineStr"/>
+      <c r="E16" s="5" t="n">
+        <v>74.32082737616568</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>43.36344166612186</v>
+      </c>
+      <c r="G16" s="6" t="inlineStr"/>
+      <c r="H16" s="6" t="inlineStr"/>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -1263,52 +904,180 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 0,84</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 0,38</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 1,46</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 1,55</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-80,65; 624,36</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr"/>
+      <c r="D17" s="5" t="inlineStr"/>
+      <c r="E17" s="5" t="inlineStr"/>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+      <c r="D18" s="5" t="inlineStr"/>
+      <c r="E18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="n">
+        <v>87.00129718477649</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr"/>
+      <c r="D19" s="5" t="inlineStr"/>
+      <c r="E19" s="5" t="inlineStr"/>
+      <c r="F19" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr"/>
+      <c r="H19" s="6" t="inlineStr"/>
+      <c r="I19" s="6" t="inlineStr"/>
+      <c r="J19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr"/>
+      <c r="D20" s="5" t="inlineStr"/>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr"/>
+      <c r="D21" s="5" t="inlineStr"/>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-56.07831630859187</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-24.01938837590421</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.993003291609</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.688383131758071</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.5607831630859187</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.4796851208050859</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.4199758519549578</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.1699946692425416</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr"/>
+      <c r="D23" s="5" t="n">
+        <v>-77.25184476042884</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-24.39013709190439</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-14.38586217090162</v>
+      </c>
+      <c r="G23" s="6" t="inlineStr"/>
+      <c r="H23" s="6" t="inlineStr"/>
+      <c r="I23" s="6" t="inlineStr"/>
+      <c r="J23" s="6" t="n">
+        <v>-0.8038102141937166</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr"/>
+      <c r="D24" s="5" t="n">
+        <v>57.92746705950083</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>29.98135607758443</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>16.01596930629417</v>
+      </c>
+      <c r="G24" s="6" t="inlineStr"/>
+      <c r="H24" s="6" t="inlineStr"/>
+      <c r="I24" s="6" t="inlineStr"/>
+      <c r="J24" s="6" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1085,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
